--- a/frontend/public/ONDC_Sample_Data2.xlsx
+++ b/frontend/public/ONDC_Sample_Data2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chanm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F788F964-F969-4F24-ADF5-FC8835F0401B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1777E2-AB8B-471A-926D-A9257E0A3B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4285572D-1DD0-474B-B28A-8D42CFDC24C5}"/>
+    <workbookView xWindow="4305" yWindow="825" windowWidth="18000" windowHeight="9270" xr2:uid="{4285572D-1DD0-474B-B28A-8D42CFDC24C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>name</t>
   </si>
@@ -39,55 +39,49 @@
     <t>7up Cool Drink</t>
   </si>
   <si>
-    <t>7up_Cool_Drink_Pet.jpg</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>product_image_1</t>
   </si>
   <si>
     <t>gst_percentage</t>
   </si>
   <si>
-    <t>asin</t>
-  </si>
-  <si>
-    <t>upc</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
     <t>selling_price</t>
   </si>
   <si>
-    <t>hsn_code</t>
-  </si>
-  <si>
-    <t>seller_sku</t>
-  </si>
-  <si>
-    <t>ASIN12345</t>
-  </si>
-  <si>
     <t>UPC12345</t>
   </si>
   <si>
     <t>Electronics</t>
   </si>
   <si>
-    <t>HSN12345</t>
-  </si>
-  <si>
-    <t>SKU12345</t>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>some brand</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>ean</t>
+  </si>
+  <si>
+    <t>7up_Cool_Drink_Pet.jpeg</t>
   </si>
 </sst>
 </file>
@@ -103,12 +97,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,8 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,102 +440,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF3301D-A08F-4493-A548-0C46B21E24A3}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" activeCellId="1" sqref="I2 K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="7" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>7</v>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2">
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2">
         <v>15</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
       <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
